--- a/hardware/algyan_8th.es3.xlsx
+++ b/hardware/algyan_8th.es3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takashi\Documents\Repo\xiaogyan\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60F13F9-4CFA-4ECF-82B1-E43A02CD6732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB5A6E7-88B9-4F33-89D2-C08194F17EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="133">
   <si>
     <t>Part</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>R16</t>
-  </si>
-  <si>
-    <t>U1</t>
   </si>
   <si>
     <t>XIAO</t>
@@ -381,12 +378,168 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CN1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JP1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JP2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CN2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U13</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +562,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="Yu Gothic"/>
@@ -449,17 +635,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -740,7 +931,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -759,18 +950,20 @@
     <col min="6" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2" style="6" customWidth="1"/>
+    <col min="12" max="12" width="6.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="H1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I1">
         <f>SUM(I4:I46)</f>
         <v>2360</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -778,31 +971,34 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" t="s">
         <v>86</v>
       </c>
-      <c r="F3" t="s">
-        <v>87</v>
-      </c>
       <c r="G3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -810,10 +1006,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>22187</v>
@@ -830,8 +1026,11 @@
       <c r="I4">
         <v>150</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="L4" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -839,10 +1038,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
@@ -859,32 +1058,37 @@
       <c r="I5">
         <v>110</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6">
+      <c r="L5" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
         <v>2437</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>2393</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>100</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="8"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -899,8 +1103,11 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="L7" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -908,10 +1115,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8">
         <v>2960</v>
@@ -928,8 +1135,11 @@
       <c r="I8">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="L8" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -937,10 +1147,13 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>68</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -955,8 +1168,11 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="L10" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -971,8 +1187,11 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="L11" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -980,10 +1199,13 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>68</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -991,10 +1213,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13">
         <v>706</v>
@@ -1011,8 +1233,11 @@
       <c r="I13">
         <v>150</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="L13" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1025,8 +1250,11 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="L14" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -1039,10 +1267,13 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="L15" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1053,8 +1284,11 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="L16" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -1067,13 +1301,16 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="L17" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1083,28 +1320,37 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="L18" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="L19" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>72</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1112,10 +1358,13 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>72</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1123,10 +1372,13 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>72</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1134,10 +1386,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23">
         <v>340</v>
@@ -1154,8 +1406,11 @@
       <c r="I23">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="L23" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1163,10 +1418,13 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>72</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1181,8 +1439,11 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="L25" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -1197,8 +1458,11 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="L26" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1206,10 +1470,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1217,15 +1484,18 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1235,8 +1505,11 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="L29" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
@@ -1251,8 +1524,11 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="L30" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="3" t="s">
         <v>33</v>
       </c>
@@ -1267,8 +1543,11 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="L31" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
@@ -1283,8 +1562,11 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="L32" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
@@ -1299,30 +1581,36 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="4" t="s">
-        <v>93</v>
+      <c r="L33" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>92</v>
       </c>
       <c r="B34" t="s">
         <v>23</v>
       </c>
       <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" t="s">
-        <v>74</v>
-      </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E35">
         <v>2024</v>
@@ -1339,19 +1627,22 @@
       <c r="I35">
         <v>940</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="L35" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>39</v>
       </c>
-      <c r="C36" t="s">
-        <v>40</v>
-      </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E36">
         <v>3664</v>
@@ -1368,19 +1659,22 @@
       <c r="I36">
         <v>80</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="L36" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
         <v>43</v>
       </c>
-      <c r="B37" t="s">
-        <v>44</v>
-      </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E37">
         <v>561</v>
@@ -1397,19 +1691,22 @@
       <c r="I37">
         <v>140</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="L37" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
         <v>45</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>46</v>
       </c>
-      <c r="C38" t="s">
-        <v>47</v>
-      </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E38">
         <v>257</v>
@@ -1426,47 +1723,52 @@
       <c r="I38">
         <v>60</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" s="7" customFormat="1">
-      <c r="A39" s="6" t="s">
+      <c r="L38" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="5" customFormat="1">
+      <c r="A39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="5">
+        <v>2</v>
+      </c>
+      <c r="G39" s="5">
         <v>42</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6">
-        <v>2</v>
-      </c>
-      <c r="G39" s="6">
-        <v>42</v>
-      </c>
-      <c r="H39" s="6">
+      <c r="H39" s="5">
         <v>1</v>
       </c>
-      <c r="I39" s="6"/>
-      <c r="J39" s="7">
+      <c r="J39" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39" s="8"/>
+      <c r="L39" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
         <v>48</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>49</v>
       </c>
-      <c r="C40" t="s">
-        <v>50</v>
-      </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E40">
         <v>2848</v>
@@ -1483,19 +1785,22 @@
       <c r="I40">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="L40" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
         <v>51</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>52</v>
       </c>
-      <c r="C41" t="s">
-        <v>53</v>
-      </c>
       <c r="D41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E41">
         <v>412</v>
@@ -1512,49 +1817,56 @@
       <c r="I41">
         <v>220</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="5" t="s">
+      <c r="L41" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>0</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="5">
         <v>0</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="5">
         <v>0</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="5">
         <v>1</v>
       </c>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6">
+      <c r="I42" s="5"/>
+      <c r="J42" s="5">
         <v>80</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42" s="8"/>
+      <c r="L42" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
         <v>54</v>
       </c>
-      <c r="B43" t="s">
-        <v>55</v>
-      </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E43">
         <v>4278</v>
@@ -1571,19 +1883,22 @@
       <c r="I43">
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="L43" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E44">
         <v>4278</v>
@@ -1600,19 +1915,22 @@
       <c r="I44">
         <v>30</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="L44" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
         <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E45">
         <v>2000</v>
@@ -1629,29 +1947,36 @@
       <c r="I45">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="6" t="s">
+      <c r="L45" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6">
+      <c r="C46" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5">
         <v>10454</v>
       </c>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6">
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5">
         <v>50</v>
+      </c>
+      <c r="K46" s="8"/>
+      <c r="L46" s="12" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
